--- a/ABPositive.xlsx
+++ b/ABPositive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achu\EH\Git\Hridyasparsham\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C24C606-3EB2-4225-B010-74DC89AB1926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB5A56C-1818-4E82-BC3B-F5D4795A20D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{A3699DB8-57EC-48CC-B622-68CADEBA0AE8}"/>
   </bookViews>
@@ -429,7 +429,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -777,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16E87E3-DC16-4EE0-A12E-3D7F4642D5DA}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1256,7 +1256,9 @@
       <c r="B28" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3">
+        <v>8075841452</v>
+      </c>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
@@ -1271,7 +1273,9 @@
       <c r="B29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="3">
+        <v>7012064536</v>
+      </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
       </c>
@@ -1286,7 +1290,9 @@
       <c r="B30" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="3">
+        <v>7597635275</v>
+      </c>
       <c r="D30" s="3" t="s">
         <v>9</v>
       </c>
@@ -1301,7 +1307,9 @@
       <c r="B31" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="3">
+        <v>8714957473</v>
+      </c>
       <c r="D31" s="3" t="s">
         <v>9</v>
       </c>
@@ -1316,7 +1324,9 @@
       <c r="B32" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="3">
+        <v>9037565287</v>
+      </c>
       <c r="D32" s="3" t="s">
         <v>9</v>
       </c>
@@ -1331,7 +1341,9 @@
       <c r="B33" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="3">
+        <v>7505360134</v>
+      </c>
       <c r="D33" s="3" t="s">
         <v>9</v>
       </c>
@@ -1346,7 +1358,9 @@
       <c r="B34" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="3">
+        <v>9027785656</v>
+      </c>
       <c r="D34" s="3" t="s">
         <v>9</v>
       </c>
@@ -1361,7 +1375,9 @@
       <c r="B35" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="3">
+        <v>7907104683</v>
+      </c>
       <c r="D35" s="3" t="s">
         <v>9</v>
       </c>
